--- a/GF_X-master/AAAGameData/Languages/Japanese.xlsx
+++ b/GF_X-master/AAAGameData/Languages/Japanese.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>BRAKE</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>取得＃シュトク＃</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Level.DisplayName1</t>
@@ -218,7 +224,10 @@
     <t>test</t>
   </si>
   <si>
-    <t/>
+    <t>テスト</t>
+  </si>
+  <si>
+    <t>test2</t>
   </si>
   <si>
     <t>UNLOCK</t>
@@ -360,6 +369,14 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
@@ -1735,6 +1752,338 @@
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14"/>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
@@ -1751,179 +2100,7 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A1" id="1052">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1052"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr rtl="0" algn="l">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>锁定</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
-          <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A2" id="1053">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1053"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off y="0" x="0"/>
-              <a:ext cy="0" cx="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr rtl="0" algn="l">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                  <a:cs typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t>锁定</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="" fLocksText="1">
-          <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A3" id="1054">
+            <xdr:cNvPr hidden="1" name="A1" id="1054">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1054"/>
@@ -1998,18 +2175,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A4" id="1055">
+            <xdr:cNvPr hidden="1" name="A2" id="1055">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1055"/>
@@ -2084,18 +2261,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A5" id="1056">
+            <xdr:cNvPr hidden="1" name="A3" id="1056">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1056"/>
@@ -2170,18 +2347,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A6" id="1057">
+            <xdr:cNvPr hidden="1" name="A4" id="1057">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1057"/>
@@ -2256,18 +2433,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A7" id="1058">
+            <xdr:cNvPr hidden="1" name="A5" id="1058">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1058"/>
@@ -2342,18 +2519,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A8" id="1059">
+            <xdr:cNvPr hidden="1" name="A6" id="1059">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1059"/>
@@ -2428,18 +2605,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A9" id="1060">
+            <xdr:cNvPr hidden="1" name="A7" id="1060">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1060"/>
@@ -2514,18 +2691,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>9</xdr:row>
+          <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A10" id="1061">
+            <xdr:cNvPr hidden="1" name="A8" id="1061">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1061"/>
@@ -2600,18 +2777,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A11" id="1062">
+            <xdr:cNvPr hidden="1" name="A9" id="1062">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1062"/>
@@ -2686,18 +2863,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A12" id="1063">
+            <xdr:cNvPr hidden="1" name="A10" id="1063">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1063"/>
@@ -2772,18 +2949,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A13" id="1064">
+            <xdr:cNvPr hidden="1" name="A11" id="1064">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1064"/>
@@ -2858,18 +3035,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A14" id="1065">
+            <xdr:cNvPr hidden="1" name="A12" id="1065">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1065"/>
@@ -2944,18 +3121,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A15" id="1066">
+            <xdr:cNvPr hidden="1" name="A13" id="1066">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1066"/>
@@ -3030,18 +3207,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A16" id="1067">
+            <xdr:cNvPr hidden="1" name="A14" id="1067">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1067"/>
@@ -3116,18 +3293,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A17" id="1068">
+            <xdr:cNvPr hidden="1" name="A15" id="1068">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1068"/>
@@ -3202,18 +3379,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A18" id="1069">
+            <xdr:cNvPr hidden="1" name="A16" id="1069">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1069"/>
@@ -3288,18 +3465,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A19" id="1070">
+            <xdr:cNvPr hidden="1" name="A17" id="1070">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1070"/>
@@ -3374,18 +3551,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A20" id="1071">
+            <xdr:cNvPr hidden="1" name="A18" id="1071">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1071"/>
@@ -3460,18 +3637,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A21" id="1072">
+            <xdr:cNvPr hidden="1" name="A19" id="1072">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1072"/>
@@ -3546,18 +3723,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>21</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A22" id="1073">
+            <xdr:cNvPr hidden="1" name="A20" id="1073">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1073"/>
@@ -3632,18 +3809,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>22</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A23" id="1074">
+            <xdr:cNvPr hidden="1" name="A21" id="1074">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1074"/>
@@ -3718,18 +3895,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>23</xdr:row>
+          <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A24" id="1075">
+            <xdr:cNvPr hidden="1" name="A22" id="1075">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1075"/>
@@ -3804,18 +3981,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A25" id="1076">
+            <xdr:cNvPr hidden="1" name="A23" id="1076">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1076"/>
@@ -3890,18 +4067,18 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>0</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A26" id="1077">
+            <xdr:cNvPr hidden="1" name="A24" id="1077">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1077"/>
@@ -3976,6 +4153,178 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A25" id="1078">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A26" id="1079">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3987,10 +4336,182 @@
         </xdr:to>
         <xdr:sp macro="" textlink="" fLocksText="1">
           <xdr:nvSpPr>
-            <xdr:cNvPr hidden="1" name="A27" id="1078">
+            <xdr:cNvPr hidden="1" name="A27" id="1080">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1078"/>
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A28" id="1081">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off y="0" x="0"/>
+              <a:ext cy="0" cx="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr upright="1" anchor="ctr" bIns="27432" rIns="27432" tIns="27432" lIns="27432" wrap="square" vertOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr rtl="0" algn="l">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" baseline="0" strike="noStrike" u="none" i="0" b="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t>锁定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="" fLocksText="1">
+          <xdr:nvSpPr>
+            <xdr:cNvPr hidden="1" name="A29" id="1082">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
@@ -4322,7 +4843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
@@ -4578,6 +5099,24 @@
         <v>53</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="1"/>
+      <c r="B28" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4590,7 +5129,7 @@
       <controls>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId329" name="A1">
+            <control shapeId="1054" r:id="rId409" name="A1">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4612,7 +5151,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId330" name="A2">
+            <control shapeId="1055" r:id="rId410" name="A2">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4634,7 +5173,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId331" name="A3">
+            <control shapeId="1056" r:id="rId411" name="A3">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4656,7 +5195,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1055" r:id="rId332" name="A4">
+            <control shapeId="1057" r:id="rId412" name="A4">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4678,7 +5217,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1056" r:id="rId333" name="A5">
+            <control shapeId="1058" r:id="rId413" name="A5">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4700,7 +5239,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1057" r:id="rId334" name="A6">
+            <control shapeId="1059" r:id="rId414" name="A6">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4722,7 +5261,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1058" r:id="rId335" name="A7">
+            <control shapeId="1060" r:id="rId415" name="A7">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4744,7 +5283,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1059" r:id="rId336" name="A8">
+            <control shapeId="1061" r:id="rId416" name="A8">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4766,7 +5305,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1060" r:id="rId337" name="A9">
+            <control shapeId="1062" r:id="rId417" name="A9">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4788,7 +5327,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1061" r:id="rId338" name="A10">
+            <control shapeId="1063" r:id="rId418" name="A10">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4810,7 +5349,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1062" r:id="rId339" name="A11">
+            <control shapeId="1064" r:id="rId419" name="A11">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4832,7 +5371,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1063" r:id="rId340" name="A12">
+            <control shapeId="1065" r:id="rId420" name="A12">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4854,7 +5393,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1064" r:id="rId341" name="A13">
+            <control shapeId="1066" r:id="rId421" name="A13">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4876,7 +5415,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1065" r:id="rId342" name="A14">
+            <control shapeId="1067" r:id="rId422" name="A14">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4898,7 +5437,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1066" r:id="rId343" name="A15">
+            <control shapeId="1068" r:id="rId423" name="A15">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4920,7 +5459,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1067" r:id="rId344" name="A16">
+            <control shapeId="1069" r:id="rId424" name="A16">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4942,7 +5481,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1068" r:id="rId345" name="A17">
+            <control shapeId="1070" r:id="rId425" name="A17">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4964,7 +5503,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1069" r:id="rId346" name="A18">
+            <control shapeId="1071" r:id="rId426" name="A18">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -4986,7 +5525,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1070" r:id="rId347" name="A19">
+            <control shapeId="1072" r:id="rId427" name="A19">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5008,7 +5547,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1071" r:id="rId348" name="A20">
+            <control shapeId="1073" r:id="rId428" name="A20">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5030,7 +5569,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1072" r:id="rId349" name="A21">
+            <control shapeId="1074" r:id="rId429" name="A21">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5052,7 +5591,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1073" r:id="rId350" name="A22">
+            <control shapeId="1075" r:id="rId430" name="A22">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5074,7 +5613,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1074" r:id="rId351" name="A23">
+            <control shapeId="1076" r:id="rId431" name="A23">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5096,7 +5635,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1075" r:id="rId352" name="A24">
+            <control shapeId="1077" r:id="rId432" name="A24">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5118,7 +5657,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1076" r:id="rId353" name="A25">
+            <control shapeId="1078" r:id="rId433" name="A25">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5140,7 +5679,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1077" r:id="rId354" name="A26">
+            <control shapeId="1079" r:id="rId434" name="A26">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5162,7 +5701,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent>
           <mc:Choice Requires="x14">
-            <control shapeId="1078" r:id="rId355" name="A27">
+            <control shapeId="1080" r:id="rId435" name="A27">
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -5182,6 +5721,50 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId436" name="A28">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>27</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent>
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId437" name="A29">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>28</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>285750</xdr:colOff>
+                    <xdr:row>29</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
